--- a/data/unchecked/manual_collect/china/yunnan/yunnanCaseStatistics_20200401.xlsx
+++ b/data/unchecked/manual_collect/china/yunnan/yunnanCaseStatistics_20200401.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huawei\Desktop\疫情大数据\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pthyon文件\COVID-19\data\unchecked\manual_collect\china\yunnan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA3B21A-E621-4D68-BAC8-1056864D4DD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D58CF6-28DE-4AD0-8A07-161383BF5FF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -11432,48 +11432,48 @@
   <dimension ref="A1:AT21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="11.875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="45.875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="31.875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="31.875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="5.125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="27.375" style="12" customWidth="1"/>
+    <col min="1" max="1" width="11.90625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="45.90625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="26.453125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="31.90625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="5.08984375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="27.36328125" style="12" customWidth="1"/>
     <col min="7" max="7" width="44" style="12" customWidth="1"/>
-    <col min="8" max="8" width="16.125" style="12" customWidth="1"/>
-    <col min="9" max="12" width="12.5" style="12" customWidth="1"/>
-    <col min="13" max="15" width="21.25" style="14" customWidth="1"/>
-    <col min="16" max="22" width="12.5" style="12" customWidth="1"/>
-    <col min="23" max="24" width="26.625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="16.08984375" style="12" customWidth="1"/>
+    <col min="9" max="12" width="12.453125" style="12" customWidth="1"/>
+    <col min="13" max="15" width="21.26953125" style="14" customWidth="1"/>
+    <col min="16" max="22" width="12.453125" style="12" customWidth="1"/>
+    <col min="23" max="24" width="26.6328125" style="12" customWidth="1"/>
     <col min="25" max="25" width="7" style="12" customWidth="1"/>
-    <col min="26" max="26" width="31.875" style="13" customWidth="1"/>
+    <col min="26" max="26" width="31.90625" style="13" customWidth="1"/>
     <col min="27" max="27" width="18" style="12" customWidth="1"/>
-    <col min="28" max="28" width="10.625" style="12" customWidth="1"/>
-    <col min="29" max="29" width="31.875" style="12" customWidth="1"/>
-    <col min="30" max="30" width="16.125" style="12" customWidth="1"/>
+    <col min="28" max="28" width="10.6328125" style="12" customWidth="1"/>
+    <col min="29" max="29" width="31.90625" style="12" customWidth="1"/>
+    <col min="30" max="30" width="16.08984375" style="12" customWidth="1"/>
     <col min="31" max="31" width="20" style="12" customWidth="1"/>
-    <col min="32" max="32" width="31.875" style="12" customWidth="1"/>
-    <col min="33" max="33" width="21.875" style="12" customWidth="1"/>
-    <col min="34" max="34" width="20.875" style="12" customWidth="1"/>
-    <col min="35" max="35" width="25.5" style="12" customWidth="1"/>
-    <col min="36" max="36" width="31.875" style="12" customWidth="1"/>
-    <col min="37" max="37" width="21.875" style="12" customWidth="1"/>
-    <col min="38" max="38" width="24.5" style="12" customWidth="1"/>
+    <col min="32" max="32" width="31.90625" style="12" customWidth="1"/>
+    <col min="33" max="33" width="21.90625" style="12" customWidth="1"/>
+    <col min="34" max="34" width="20.90625" style="12" customWidth="1"/>
+    <col min="35" max="35" width="25.453125" style="12" customWidth="1"/>
+    <col min="36" max="36" width="31.90625" style="12" customWidth="1"/>
+    <col min="37" max="37" width="21.90625" style="12" customWidth="1"/>
+    <col min="38" max="38" width="24.453125" style="12" customWidth="1"/>
     <col min="39" max="39" width="31" style="12" customWidth="1"/>
-    <col min="40" max="40" width="8.875" style="12" customWidth="1"/>
-    <col min="41" max="42" width="31.875" style="12" customWidth="1"/>
-    <col min="43" max="43" width="21.875" style="12" customWidth="1"/>
-    <col min="44" max="44" width="24.5" style="12" customWidth="1"/>
+    <col min="40" max="40" width="8.90625" style="12" customWidth="1"/>
+    <col min="41" max="42" width="31.90625" style="12" customWidth="1"/>
+    <col min="43" max="43" width="21.90625" style="12" customWidth="1"/>
+    <col min="44" max="44" width="24.453125" style="12" customWidth="1"/>
     <col min="45" max="45" width="31" style="12" customWidth="1"/>
-    <col min="46" max="46" width="5.125" style="12" customWidth="1"/>
-    <col min="47" max="16384" width="10.875" style="12"/>
+    <col min="46" max="46" width="5.08984375" style="12" customWidth="1"/>
+    <col min="47" max="16384" width="10.90625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="11" customFormat="1" ht="15">
+    <row r="1" spans="1:46" s="11" customFormat="1" ht="16.2">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -12746,10 +12746,10 @@
       <selection pane="bottomLeft" activeCell="AN1" sqref="AN1:AN16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">

--- a/data/unchecked/manual_collect/china/yunnan/yunnanCaseStatistics_20200401.xlsx
+++ b/data/unchecked/manual_collect/china/yunnan/yunnanCaseStatistics_20200401.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pthyon文件\COVID-19\data\unchecked\manual_collect\china\yunnan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D58CF6-28DE-4AD0-8A07-161383BF5FF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4247E057-AEA7-415A-99D9-4CD69DB184D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -413,7 +413,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9388" uniqueCount="3306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9389" uniqueCount="3307">
   <si>
     <t>序号</t>
   </si>
@@ -10952,6 +10952,10 @@
     <t>缅甸</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>区县级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -11098,7 +11102,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -11148,7 +11152,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -11429,10 +11432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AT21"/>
+  <dimension ref="A1:AT20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
@@ -11660,10 +11663,10 @@
       <c r="Z2" s="19">
         <v>43906.399305555598</v>
       </c>
-      <c r="AA2" s="22" t="s">
+      <c r="AA2" s="21" t="s">
         <v>3300</v>
       </c>
-      <c r="AB2" s="23" t="s">
+      <c r="AB2" s="22" t="s">
         <v>3301</v>
       </c>
       <c r="AC2" s="19"/>
@@ -11720,7 +11723,7 @@
         <v>43906.399305555598</v>
       </c>
       <c r="AA3" s="20"/>
-      <c r="AB3" s="23" t="s">
+      <c r="AB3" s="22" t="s">
         <v>3301</v>
       </c>
       <c r="AC3" s="19"/>
@@ -11779,7 +11782,7 @@
         <v>43906.399305555598</v>
       </c>
       <c r="AA4" s="20"/>
-      <c r="AB4" s="23" t="s">
+      <c r="AB4" s="22" t="s">
         <v>3301</v>
       </c>
       <c r="AC4" s="19"/>
@@ -11838,7 +11841,7 @@
         <v>43906.399305555598</v>
       </c>
       <c r="AA5" s="20"/>
-      <c r="AB5" s="23" t="s">
+      <c r="AB5" s="22" t="s">
         <v>3301</v>
       </c>
       <c r="AC5" s="20"/>
@@ -11895,7 +11898,7 @@
         <v>43906.399305555598</v>
       </c>
       <c r="AA6" s="20"/>
-      <c r="AB6" s="23" t="s">
+      <c r="AB6" s="22" t="s">
         <v>3301</v>
       </c>
       <c r="AC6" s="20"/>
@@ -11952,7 +11955,7 @@
         <v>43906.399305555598</v>
       </c>
       <c r="AA7" s="20"/>
-      <c r="AB7" s="23" t="s">
+      <c r="AB7" s="22" t="s">
         <v>3301</v>
       </c>
       <c r="AC7" s="20"/>
@@ -12009,7 +12012,7 @@
         <v>43906.399305555598</v>
       </c>
       <c r="AA8" s="20"/>
-      <c r="AB8" s="23" t="s">
+      <c r="AB8" s="22" t="s">
         <v>3301</v>
       </c>
       <c r="AC8" s="20"/>
@@ -12066,7 +12069,7 @@
         <v>43906.399305555598</v>
       </c>
       <c r="AA9" s="20"/>
-      <c r="AB9" s="23" t="s">
+      <c r="AB9" s="22" t="s">
         <v>3301</v>
       </c>
       <c r="AC9" s="20"/>
@@ -12123,7 +12126,7 @@
         <v>43906.399305555598</v>
       </c>
       <c r="AA10" s="20"/>
-      <c r="AB10" s="23" t="s">
+      <c r="AB10" s="22" t="s">
         <v>3301</v>
       </c>
       <c r="AC10" s="20"/>
@@ -12180,7 +12183,7 @@
         <v>43906.399305555598</v>
       </c>
       <c r="AA11" s="20"/>
-      <c r="AB11" s="23" t="s">
+      <c r="AB11" s="22" t="s">
         <v>3301</v>
       </c>
       <c r="AC11" s="20"/>
@@ -12237,7 +12240,7 @@
         <v>43906.399305555598</v>
       </c>
       <c r="AA12" s="20"/>
-      <c r="AB12" s="23" t="s">
+      <c r="AB12" s="22" t="s">
         <v>3301</v>
       </c>
       <c r="AC12" s="20"/>
@@ -12294,7 +12297,7 @@
         <v>43906.399305555598</v>
       </c>
       <c r="AA13" s="20"/>
-      <c r="AB13" s="23" t="s">
+      <c r="AB13" s="22" t="s">
         <v>3301</v>
       </c>
       <c r="AC13" s="20"/>
@@ -12351,7 +12354,7 @@
         <v>43906.399305555598</v>
       </c>
       <c r="AA14" s="20"/>
-      <c r="AB14" s="23" t="s">
+      <c r="AB14" s="22" t="s">
         <v>3301</v>
       </c>
       <c r="AC14" s="20"/>
@@ -12408,7 +12411,7 @@
         <v>43906.399305555598</v>
       </c>
       <c r="AA15" s="20"/>
-      <c r="AB15" s="23" t="s">
+      <c r="AB15" s="22" t="s">
         <v>3301</v>
       </c>
       <c r="AC15" s="20"/>
@@ -12465,7 +12468,7 @@
         <v>43906.399305555598</v>
       </c>
       <c r="AA16" s="20"/>
-      <c r="AB16" s="23" t="s">
+      <c r="AB16" s="22" t="s">
         <v>3301</v>
       </c>
       <c r="AC16" s="20"/>
@@ -12518,7 +12521,7 @@
         <v>43906.399305555598</v>
       </c>
       <c r="AA17" s="20"/>
-      <c r="AB17" s="23" t="s">
+      <c r="AB17" s="22" t="s">
         <v>3301</v>
       </c>
       <c r="AC17" s="20"/>
@@ -12578,7 +12581,7 @@
         <v>43906.399305555598</v>
       </c>
       <c r="AA18" s="20"/>
-      <c r="AB18" s="23" t="s">
+      <c r="AB18" s="22" t="s">
         <v>3301</v>
       </c>
       <c r="AC18" s="20"/>
@@ -12602,7 +12605,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>3296</v>
+        <v>3306</v>
       </c>
       <c r="C19" s="19">
         <v>43922</v>
@@ -12637,7 +12640,7 @@
         <v>43906.399305555598</v>
       </c>
       <c r="AA19" s="20"/>
-      <c r="AB19" s="23" t="s">
+      <c r="AB19" s="22" t="s">
         <v>3301</v>
       </c>
       <c r="AC19" s="20"/>
@@ -12657,8 +12660,15 @@
       </c>
     </row>
     <row r="20" spans="1:35">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
+      <c r="A20" s="20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>3306</v>
+      </c>
+      <c r="C20" s="19">
+        <v>43922</v>
+      </c>
       <c r="D20" s="19">
         <v>43923</v>
       </c>
@@ -12679,41 +12689,32 @@
       <c r="Q20" s="20"/>
       <c r="R20" s="20"/>
     </row>
-    <row r="21" spans="1:35">
-      <c r="C21" s="21"/>
-      <c r="D21" s="19">
-        <v>43923</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ2:AQ1048576 AK2:AK1048576 AG2:AG1048576" xr:uid="{6E8CD89C-39CF-46A3-B3C3-D9FB9E4D133F}">
+  <dataValidations count="8">
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:X19 J20:X20 I21:X1048576" xr:uid="{539ABCAA-9AF7-4271-9710-4E654524B979}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{F5B69972-3960-4FC1-B53B-C42AFD80CCAD}">
+      <formula1>INDIRECT($F2)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H19 H21:H1048576" xr:uid="{9D7FDF9D-0EC5-410D-88D6-D4578789AFAB}">
+      <formula1>INDIRECT($G2)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG1048576 AK2:AK1048576 AQ2:AQ1048576" xr:uid="{6E8CD89C-39CF-46A3-B3C3-D9FB9E4D133F}">
       <formula1>"手动,自动"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576" xr:uid="{583CD3B5-C411-43F7-9C8F-5F0C73C79A93}">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2:AS1048576 AM2:AM1048576" xr:uid="{C1AB8998-459D-4E0A-9286-A3C18CF5A33E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM1048576 AS2:AS1048576" xr:uid="{C1AB8998-459D-4E0A-9286-A3C18CF5A33E}">
       <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2:AI1048576" xr:uid="{5CB3D9B1-5804-49D1-A61F-69CD2D5C9507}">
       <formula1>"未核查,已核查"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:X19 I21:X1048576 J20:X20" xr:uid="{539ABCAA-9AF7-4271-9710-4E654524B979}">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G20 G22:G1048576" xr:uid="{F5B69972-3960-4FC1-B53B-C42AFD80CCAD}">
-      <formula1>INDIRECT($F2)</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20" xr:uid="{F40A6518-E3EF-47A5-97BD-745A499BB450}">
-      <formula1>INDIRECT($F21)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H19 H22:H1048576" xr:uid="{9D7FDF9D-0EC5-410D-88D6-D4578789AFAB}">
-      <formula1>INDIRECT($G2)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H21" xr:uid="{9AB2C9D0-377E-45C8-A23B-06F56F2B0849}">
-      <formula1>INDIRECT($H20)</formula1>
+      <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>

--- a/data/unchecked/manual_collect/china/yunnan/yunnanCaseStatistics_20200401.xlsx
+++ b/data/unchecked/manual_collect/china/yunnan/yunnanCaseStatistics_20200401.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pthyon文件\COVID-19\data\unchecked\manual_collect\china\yunnan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4247E057-AEA7-415A-99D9-4CD69DB184D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32405B12-8030-4A06-88D3-F113A99135CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11435,14 +11435,14 @@
   <dimension ref="A1:AT20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="11.90625" style="12" customWidth="1"/>
     <col min="2" max="2" width="45.90625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="26.453125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="22.54296875" style="13" customWidth="1"/>
     <col min="4" max="4" width="31.90625" style="12" customWidth="1"/>
     <col min="5" max="5" width="5.08984375" style="12" customWidth="1"/>
     <col min="6" max="6" width="27.36328125" style="12" customWidth="1"/>
